--- a/data/trans_dic/P20_4_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20_4_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido menos unido/a con el resto de la sociedad</t>
+          <t>Población que se ha sentido menos unido/a con el resto de la sociedad (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>37,53%</t>
+          <t>62,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>59,45%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>69,08%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36,07%</t>
+          <t>63,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>65,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>37,93%</t>
+          <t>61,4%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,6; 45,06</t>
+          <t>54,89; 69,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,33; 47,75</t>
+          <t>50,6; 67,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,08; 38,69</t>
+          <t>61,65; 75,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,89; 44,13</t>
+          <t>55,3; 71,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,3; 39,57</t>
+          <t>59,97; 70,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,9; 44,43</t>
+          <t>55,28; 66,78</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>39,57%</t>
+          <t>60,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>45,31%</t>
+          <t>53,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>66,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,03%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,22%</t>
+          <t>63,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>43,29%</t>
+          <t>56,08%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,6; 48,43</t>
+          <t>50,54; 69,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,85; 56,32</t>
+          <t>41,56; 63,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,12; 38,64</t>
+          <t>59,31; 72,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,39; 49,16</t>
+          <t>51,38; 65,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,1; 42,6</t>
+          <t>57,1; 68,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,52; 49,87</t>
+          <t>49,13; 62,13</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>65,23%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>40,55%</t>
+          <t>56,39%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,34%</t>
+          <t>72,17%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>38,72%</t>
+          <t>60,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>68,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,63%</t>
+          <t>58,43%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,69; 40,47</t>
+          <t>58,6; 71,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,79; 49,01</t>
+          <t>48,57; 64,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,72; 32,5</t>
+          <t>67,18; 76,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33,07; 44,97</t>
+          <t>54,28; 65,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,82; 34,73</t>
+          <t>64,83; 72,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,38; 44,49</t>
+          <t>53,07; 62,83</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>68,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>47,44%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,02%</t>
+          <t>69,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,14%</t>
+          <t>63,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>68,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>42,13%</t>
+          <t>57,92%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,75; 36,6</t>
+          <t>62,25; 73,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,61; 54,1</t>
+          <t>45,67; 58,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,56; 35,17</t>
+          <t>64,0; 73,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,48; 43,54</t>
+          <t>57,66; 68,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,46; 34,62</t>
+          <t>65,18; 72,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,67; 46,28</t>
+          <t>53,68; 62,23</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>67,73%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>37,89%</t>
+          <t>61,71%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>29,91%</t>
+          <t>69,81%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>41,1%</t>
+          <t>59,44%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>30,79%</t>
+          <t>68,76%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>39,51%</t>
+          <t>60,57%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,21; 38,09</t>
+          <t>60,66; 73,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,93; 45,38</t>
+          <t>55,32; 68,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,62; 36,03</t>
+          <t>63,1; 75,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,94; 47,79</t>
+          <t>51,91; 66,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,36; 35,81</t>
+          <t>63,74; 72,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,53; 44,35</t>
+          <t>55,88; 65,52</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>43,71%</t>
+          <t>54,22%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>47,34%</t>
+          <t>51,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>42,35%</t>
+          <t>54,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>48,1%</t>
+          <t>52,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>42,94%</t>
+          <t>54,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>47,77%</t>
+          <t>52,28%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>36,73; 50,84</t>
+          <t>46,84; 60,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>38,68; 57,0</t>
+          <t>43,5; 60,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>36,16; 48,57</t>
+          <t>48,01; 59,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>39,85; 55,78</t>
+          <t>45,44; 59,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>38,57; 47,68</t>
+          <t>49,77; 58,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,74; 53,2</t>
+          <t>47,14; 57,89</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>63,25%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>43,1%</t>
+          <t>55,77%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>66,39%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>59,5%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>34,18%</t>
+          <t>64,86%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>57,66%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>33,24; 38,84</t>
+          <t>60,29; 66,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39,56; 46,4</t>
+          <t>52,55; 59,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,17; 34,73</t>
+          <t>64,08; 68,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>37,77; 43,28</t>
+          <t>56,89; 62,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>32,44; 35,97</t>
+          <t>62,9; 66,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>39,63; 43,89</t>
+          <t>55,62; 59,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido menos unido/a con el resto de la sociedad (tasa de respuesta: 99,43%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>320414</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>298470</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>319750</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>295729</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>640164</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>594199</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>281571; 357291</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>254048; 338917</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>285371; 350072</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>257495; 331485</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>585257; 688014</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>534991; 646256</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>340488</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>307386</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>344217</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>295358</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>684706</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>602744</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>284732; 390131</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>236952; 360339</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>307736; 375982</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>259282; 332353</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>618002; 737062</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>528012; 667730</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>407.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>440871</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>385692</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>500989</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>428788</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>941859</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>814479</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>396072; 481647</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>332184; 439022</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>466391; 533468</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>385411; 467401</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>888268; 998252</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>739818; 875840</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>442.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>323.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>436797</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>335955</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>487496</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>421753</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>924293</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>757708</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>397454; 470270</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>292239; 373618</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>450077; 519487</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>385323; 460397</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>874468; 967071</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>702150; 814018</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>346747</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>297365</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>350744</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>290863</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>697491</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>588228</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>310547; 377761</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>266562; 332267</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>317009; 379313</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>254034; 324519</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>646550; 738506</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>542720; 636305</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>296532</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>256728</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>395309</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>339114</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>691840</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>595842</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>256172; 330986</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>215578; 301792</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>351006; 437866</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>292674; 384670</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>636015; 751686</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>537246; 659671</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>864.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>634.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1072.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>785.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1936.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1419.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2181848</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1881597</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2398506</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2071603</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>4580354</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3953199</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2079616; 2276945</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1772860; 1994737</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2315144; 2488527</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1980982; 2171148</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>4442164; 4711444</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3812714; 4111788</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>